--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserDir\Desktop\workspace\MODGM\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9DEE3-3A9C-47F4-968E-E9F75ABE7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF151A-80BC-45CC-B0EA-DD2F4F04D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="6060" windowWidth="24210" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Hats" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2342,12 +2341,6 @@
     <t>creditsVersion</t>
   </si>
   <si>
-    <t>GMエディション v{0}</t>
-  </si>
-  <si>
-    <t>GM Edition v{0}</t>
-  </si>
-  <si>
     <t>Banner.png</t>
   </si>
   <si>
@@ -4647,26 +4640,6 @@
     <t>Voting The Witch Saves All The Targets</t>
   </si>
   <si>
-    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x000D_
-Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x000D_
-デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;_x000D_
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x000D_
-Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;_x000D_
-Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;_x000D_
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x000D_
-ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;_x000D_
-カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>Update_x000D_
 The Other Roles GM</t>
   </si>
@@ -5161,17 +5134,64 @@
   <si>
     <t>playerInfoDC</t>
   </si>
+  <si>
+    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emergency Fix by Naruka_NAL GM Edition v{0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v2021.12.17暫定対応:Naruka_NAL GMエディション v{0}</t>
+    <rPh sb="11" eb="13">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;
+v2021.12.17暫定対応:Naruka_NAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;
+Emergency Fix by Naruka_NAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5205,7 +5225,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5485,18 +5505,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="A600" sqref="A600"/>
+    <sheetView tabSelected="1" topLeftCell="B615" workbookViewId="0">
+      <selection activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" customWidth="1"/>
-    <col min="13" max="13" width="58.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="13" max="13" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -5546,18 +5566,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="M2" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -5568,7 +5588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -5579,7 +5599,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -5590,7 +5610,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -5601,7 +5621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -5612,7 +5632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -5631,10 +5651,10 @@
         <v>455</v>
       </c>
       <c r="M10" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -5642,10 +5662,10 @@
         <v>456</v>
       </c>
       <c r="M11" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5653,10 +5673,10 @@
         <v>457</v>
       </c>
       <c r="M12" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5664,10 +5684,10 @@
         <v>458</v>
       </c>
       <c r="M13" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5675,10 +5695,10 @@
         <v>459</v>
       </c>
       <c r="M14" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -5686,21 +5706,21 @@
         <v>460</v>
       </c>
       <c r="M15" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B17" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="M17" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -5711,7 +5731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>393</v>
       </c>
@@ -5722,7 +5742,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>395</v>
       </c>
@@ -5733,7 +5753,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -5744,7 +5764,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -5755,7 +5775,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -5763,10 +5783,10 @@
         <v>690</v>
       </c>
       <c r="M25" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -5774,10 +5794,10 @@
         <v>691</v>
       </c>
       <c r="M26" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5788,7 +5808,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>398</v>
       </c>
@@ -5799,7 +5819,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>399</v>
       </c>
@@ -5810,9 +5830,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B34" t="s">
         <v>461</v>
@@ -5821,7 +5841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -5840,10 +5860,10 @@
         <v>532</v>
       </c>
       <c r="M37" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -5854,7 +5874,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -5865,7 +5885,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -5876,7 +5896,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -5887,7 +5907,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -5898,7 +5918,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -5909,7 +5929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -5920,7 +5940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>255</v>
       </c>
@@ -5931,7 +5951,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -5942,7 +5962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -5953,7 +5973,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>260</v>
       </c>
@@ -5964,7 +5984,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5975,7 +5995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -5983,10 +6003,10 @@
         <v>464</v>
       </c>
       <c r="M56" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -5994,10 +6014,10 @@
         <v>465</v>
       </c>
       <c r="M60" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -6008,7 +6028,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>265</v>
       </c>
@@ -6019,7 +6039,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -6030,7 +6050,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -6038,21 +6058,21 @@
         <v>466</v>
       </c>
       <c r="M65" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B66" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M66" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>266</v>
       </c>
@@ -6063,7 +6083,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>267</v>
       </c>
@@ -6074,7 +6094,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>269</v>
       </c>
@@ -6085,7 +6105,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -6096,7 +6116,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -6107,7 +6127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -6118,7 +6138,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -6129,7 +6149,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -6137,10 +6157,10 @@
         <v>541</v>
       </c>
       <c r="M81" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -6148,10 +6168,10 @@
         <v>582</v>
       </c>
       <c r="M82" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -6162,18 +6182,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B85" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="M85" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -6184,7 +6204,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>273</v>
       </c>
@@ -6195,7 +6215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -6206,7 +6226,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -6217,7 +6237,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -6228,7 +6248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -6239,7 +6259,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -6247,10 +6267,10 @@
         <v>697</v>
       </c>
       <c r="M96" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>278</v>
       </c>
@@ -6261,7 +6281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -6269,10 +6289,10 @@
         <v>543</v>
       </c>
       <c r="M101" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -6283,7 +6303,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>281</v>
       </c>
@@ -6305,7 +6325,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>282</v>
       </c>
@@ -6316,7 +6336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>284</v>
       </c>
@@ -6327,7 +6347,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -6338,7 +6358,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -6349,7 +6369,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>285</v>
       </c>
@@ -6360,7 +6380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -6371,7 +6391,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -6382,7 +6402,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -6393,7 +6413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -6404,7 +6424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -6415,7 +6435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -6426,7 +6446,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -6437,9 +6457,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B129" t="s">
         <v>478</v>
@@ -6448,7 +6468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>321</v>
       </c>
@@ -6459,7 +6479,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>323</v>
       </c>
@@ -6470,7 +6490,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>325</v>
       </c>
@@ -6481,7 +6501,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>327</v>
       </c>
@@ -6492,7 +6512,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>329</v>
       </c>
@@ -6503,7 +6523,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>330</v>
       </c>
@@ -6514,31 +6534,31 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B139" t="s">
         <v>1100</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1102</v>
       </c>
       <c r="M139" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="M140" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B144" t="s">
         <v>479</v>
@@ -6547,9 +6567,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B145" t="s">
         <v>575</v>
@@ -6558,9 +6578,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B146" t="s">
         <v>575</v>
@@ -6569,7 +6589,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>433</v>
       </c>
@@ -6580,11 +6600,11 @@
         <v>628</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B148" s="4"/>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -6595,7 +6615,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -6606,7 +6626,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -6614,10 +6634,10 @@
         <v>700</v>
       </c>
       <c r="M151" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -6628,31 +6648,31 @@
         <v>667</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
+        <v>861</v>
+      </c>
+      <c r="B153" t="s">
+        <v>862</v>
+      </c>
+      <c r="M153" t="s">
         <v>863</v>
       </c>
-      <c r="B153" t="s">
-        <v>864</v>
-      </c>
-      <c r="M153" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M154" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B158" t="s">
         <v>481</v>
@@ -6661,7 +6681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>364</v>
       </c>
@@ -6672,7 +6692,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>366</v>
       </c>
@@ -6683,7 +6703,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>368</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>369</v>
       </c>
@@ -6705,7 +6725,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>371</v>
       </c>
@@ -6716,7 +6736,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>372</v>
       </c>
@@ -6727,18 +6747,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M168" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -6749,62 +6769,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B170" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M170" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B171" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="M171" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B172" t="s">
         <v>1371</v>
       </c>
-      <c r="B172" t="s">
+      <c r="M172" t="s">
         <v>1373</v>
       </c>
-      <c r="M172" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B173" t="s">
         <v>1372</v>
       </c>
-      <c r="B173" t="s">
+      <c r="M173" t="s">
         <v>1374</v>
       </c>
-      <c r="M173" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M175" t="s">
         <v>1411</v>
       </c>
-      <c r="B175" t="s">
-        <v>1412</v>
-      </c>
-      <c r="M175" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>222</v>
       </c>
@@ -6815,7 +6835,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>223</v>
       </c>
@@ -6826,7 +6846,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>225</v>
       </c>
@@ -6837,7 +6857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>25</v>
       </c>
@@ -6848,7 +6868,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -6859,7 +6879,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>360</v>
       </c>
@@ -6870,7 +6890,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>361</v>
       </c>
@@ -6881,7 +6901,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>363</v>
       </c>
@@ -6892,7 +6912,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -6903,7 +6923,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -6914,7 +6934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>341</v>
       </c>
@@ -6925,7 +6945,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>342</v>
       </c>
@@ -6936,7 +6956,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>344</v>
       </c>
@@ -6947,18 +6967,18 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="M200" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>345</v>
       </c>
@@ -6969,7 +6989,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>347</v>
       </c>
@@ -6980,7 +7000,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>349</v>
       </c>
@@ -6991,7 +7011,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>29</v>
       </c>
@@ -7002,7 +7022,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -7013,7 +7033,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -7024,7 +7044,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -7035,18 +7055,18 @@
         <v>674</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B210" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M210" t="s">
         <v>1056</v>
       </c>
-      <c r="M210" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -7057,7 +7077,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -7068,7 +7088,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -7079,7 +7099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -7090,7 +7110,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -7101,7 +7121,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -7123,7 +7143,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>305</v>
       </c>
@@ -7131,10 +7151,10 @@
         <v>549</v>
       </c>
       <c r="M222" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>306</v>
       </c>
@@ -7142,10 +7162,10 @@
         <v>549</v>
       </c>
       <c r="M223" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>44</v>
       </c>
@@ -7156,7 +7176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -7167,40 +7187,40 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M230" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M231" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M233" t="s">
         <v>1357</v>
       </c>
-      <c r="B233" t="s">
-        <v>1358</v>
-      </c>
-      <c r="M233" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>229</v>
       </c>
@@ -7211,7 +7231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>230</v>
       </c>
@@ -7222,7 +7242,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>232</v>
       </c>
@@ -7233,40 +7253,40 @@
         <v>231</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M241" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M242" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
         <v>1380</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B243" t="s">
         <v>1377</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M243" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1378</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1379</v>
-      </c>
-      <c r="M243" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>233</v>
       </c>
@@ -7277,7 +7297,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>234</v>
       </c>
@@ -7288,7 +7308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -7299,7 +7319,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>45</v>
       </c>
@@ -7310,7 +7330,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>46</v>
       </c>
@@ -7321,7 +7341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>47</v>
       </c>
@@ -7332,18 +7352,18 @@
         <v>676</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
+        <v>866</v>
+      </c>
+      <c r="B254" t="s">
+        <v>867</v>
+      </c>
+      <c r="M254" t="s">
         <v>868</v>
       </c>
-      <c r="B254" t="s">
-        <v>869</v>
-      </c>
-      <c r="M254" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>440</v>
       </c>
@@ -7354,7 +7374,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>238</v>
       </c>
@@ -7365,7 +7385,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -7376,7 +7396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>241</v>
       </c>
@@ -7387,7 +7407,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>48</v>
       </c>
@@ -7398,7 +7418,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -7409,7 +7429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>50</v>
       </c>
@@ -7420,7 +7440,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -7428,10 +7448,10 @@
         <v>732</v>
       </c>
       <c r="M267" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -7442,7 +7462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>292</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>52</v>
       </c>
@@ -7475,7 +7495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -7486,7 +7506,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -7497,7 +7517,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -7508,7 +7528,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>56</v>
       </c>
@@ -7519,7 +7539,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>651</v>
       </c>
@@ -7530,7 +7550,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>652</v>
       </c>
@@ -7541,7 +7561,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>653</v>
       </c>
@@ -7552,7 +7572,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>654</v>
       </c>
@@ -7563,7 +7583,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>655</v>
       </c>
@@ -7574,29 +7594,29 @@
         <v>662</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B286" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="M286" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B287" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="M287" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -7607,7 +7627,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -7629,7 +7649,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>57</v>
       </c>
@@ -7640,7 +7660,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -7651,7 +7671,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>59</v>
       </c>
@@ -7659,10 +7679,10 @@
         <v>734</v>
       </c>
       <c r="M297" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -7673,7 +7693,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -7684,7 +7704,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -7695,7 +7715,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>623</v>
       </c>
@@ -7706,7 +7726,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>609</v>
       </c>
@@ -7717,7 +7737,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -7728,7 +7748,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>613</v>
       </c>
@@ -7739,7 +7759,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>60</v>
       </c>
@@ -7747,10 +7767,10 @@
         <v>502</v>
       </c>
       <c r="M309" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>61</v>
       </c>
@@ -7761,18 +7781,18 @@
         <v>763</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B311" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M311" t="s">
         <v>1386</v>
       </c>
-      <c r="M311" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>649</v>
       </c>
@@ -7783,7 +7803,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>307</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>308</v>
       </c>
@@ -7805,7 +7825,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>310</v>
       </c>
@@ -7816,7 +7836,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>62</v>
       </c>
@@ -7827,7 +7847,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>63</v>
       </c>
@@ -7838,7 +7858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>312</v>
       </c>
@@ -7849,7 +7869,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>313</v>
       </c>
@@ -7860,7 +7880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>315</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>624</v>
       </c>
@@ -7882,7 +7902,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>614</v>
       </c>
@@ -7893,7 +7913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>615</v>
       </c>
@@ -7904,7 +7924,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>616</v>
       </c>
@@ -7915,7 +7935,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>65</v>
       </c>
@@ -7926,7 +7946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>64</v>
       </c>
@@ -7937,22 +7957,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B336" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B337" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B338" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>316</v>
       </c>
@@ -7963,7 +7983,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>317</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>319</v>
       </c>
@@ -7985,7 +8005,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>66</v>
       </c>
@@ -7996,7 +8016,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>67</v>
       </c>
@@ -8004,10 +8024,10 @@
         <v>736</v>
       </c>
       <c r="M344" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>68</v>
       </c>
@@ -8015,10 +8035,10 @@
         <v>719</v>
       </c>
       <c r="M345" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>331</v>
       </c>
@@ -8029,7 +8049,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>332</v>
       </c>
@@ -8040,7 +8060,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>334</v>
       </c>
@@ -8051,7 +8071,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>69</v>
       </c>
@@ -8062,7 +8082,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>70</v>
       </c>
@@ -8073,40 +8093,40 @@
         <v>197</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M356" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
         <v>1393</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B357" t="s">
         <v>1390</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M357" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1391</v>
-      </c>
-      <c r="M356" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1392</v>
-      </c>
-      <c r="M357" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>336</v>
       </c>
@@ -8117,7 +8137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>337</v>
       </c>
@@ -8128,7 +8148,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>339</v>
       </c>
@@ -8139,7 +8159,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>71</v>
       </c>
@@ -8150,7 +8170,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>72</v>
       </c>
@@ -8161,7 +8181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>73</v>
       </c>
@@ -8172,7 +8192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>350</v>
       </c>
@@ -8183,7 +8203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>351</v>
       </c>
@@ -8194,7 +8214,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>353</v>
       </c>
@@ -8205,7 +8225,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>74</v>
       </c>
@@ -8216,7 +8236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>75</v>
       </c>
@@ -8227,7 +8247,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>76</v>
       </c>
@@ -8238,7 +8258,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>77</v>
       </c>
@@ -8249,7 +8269,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>355</v>
       </c>
@@ -8257,10 +8277,10 @@
         <v>516</v>
       </c>
       <c r="M382" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>356</v>
       </c>
@@ -8271,7 +8291,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>358</v>
       </c>
@@ -8282,7 +8302,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>84</v>
       </c>
@@ -8290,10 +8310,10 @@
         <v>686</v>
       </c>
       <c r="M386" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>85</v>
       </c>
@@ -8304,7 +8324,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>86</v>
       </c>
@@ -8315,7 +8335,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>87</v>
       </c>
@@ -8326,18 +8346,18 @@
         <v>762</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="B391" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="M391" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>373</v>
       </c>
@@ -8348,7 +8368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>374</v>
       </c>
@@ -8359,7 +8379,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>376</v>
       </c>
@@ -8370,7 +8390,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>88</v>
       </c>
@@ -8381,7 +8401,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>89</v>
       </c>
@@ -8392,18 +8412,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="B401" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="M401" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>377</v>
       </c>
@@ -8414,7 +8434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>378</v>
       </c>
@@ -8425,7 +8445,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>380</v>
       </c>
@@ -8436,7 +8456,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>90</v>
       </c>
@@ -8447,7 +8467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>91</v>
       </c>
@@ -8458,7 +8478,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -8469,7 +8489,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>93</v>
       </c>
@@ -8480,7 +8500,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>94</v>
       </c>
@@ -8491,108 +8511,108 @@
         <v>680</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M415" t="s">
         <v>1354</v>
       </c>
-      <c r="B415" t="s">
-        <v>1355</v>
-      </c>
-      <c r="M415" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
+        <v>821</v>
+      </c>
+      <c r="B419" t="s">
+        <v>824</v>
+      </c>
+      <c r="M419" t="s">
         <v>823</v>
       </c>
-      <c r="B419" t="s">
-        <v>826</v>
-      </c>
-      <c r="M419" t="s">
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A420" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B420" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B420" t="s">
-        <v>827</v>
-      </c>
       <c r="M420" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B421" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M421" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M425" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A426" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M426" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A427" t="s">
         <v>1024</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B427" t="s">
         <v>1030</v>
       </c>
-      <c r="M425" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M426" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1032</v>
-      </c>
       <c r="M427" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M429" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M430" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
         <v>1035</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M429" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M430" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>1037</v>
       </c>
       <c r="B431" t="s">
         <v>709</v>
@@ -8601,457 +8621,457 @@
         <v>670</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M432" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B434" t="s">
+        <v>889</v>
+      </c>
+      <c r="M434" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M438" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M439" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M442" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A443" t="s">
         <v>1038</v>
       </c>
-      <c r="B432" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M432" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B434" t="s">
-        <v>891</v>
-      </c>
-      <c r="M434" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M438" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B439" t="s">
+      <c r="B443" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M443" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A444" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M444" t="s">
         <v>1050</v>
       </c>
-      <c r="M439" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M440" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M442" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M443" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M444" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M446" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A447" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M447" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A448" t="s">
         <v>1059</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B448" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M448" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A449" t="s">
         <v>1062</v>
       </c>
-      <c r="M446" t="s">
+      <c r="B449" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M449" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A453" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M453" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A454" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M454" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A455" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M455" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A456" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M456" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A457" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M457" s="4" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A459" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M459" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A460" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M460" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A461" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M461" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A462" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M462" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A463" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M463" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A467" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M467" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A468" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M468" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M447" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M448" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M449" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1426</v>
-      </c>
-      <c r="M453" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B454" t="s">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A469" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B469" t="s">
         <v>1427</v>
       </c>
-      <c r="M454" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1427</v>
-      </c>
-      <c r="M455" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B456" s="4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="M456" s="4" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M457" s="4" t="s">
+      <c r="M469" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A470" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M470" s="4" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A471" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A473" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M473" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A474" t="s">
         <v>1487</v>
       </c>
-      <c r="B459" t="s">
-        <v>1521</v>
-      </c>
-      <c r="M459" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1522</v>
-      </c>
-      <c r="M460" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M461" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M462" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B463" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M463" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1428</v>
-      </c>
-      <c r="M467" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1429</v>
-      </c>
-      <c r="M468" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1429</v>
-      </c>
-      <c r="M469" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="M470" s="4" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1441</v>
-      </c>
-      <c r="M473" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>1493</v>
-      </c>
       <c r="B474" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="M474" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="B476" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="M476" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M480" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A481" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M481" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A482" t="s">
         <v>1438</v>
       </c>
-      <c r="B480" t="s">
-        <v>1430</v>
-      </c>
-      <c r="M480" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M481" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>1440</v>
-      </c>
       <c r="B482" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="M482" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="M483" s="4" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="M484" s="4" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="B486" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="M486" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B487" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M487" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A488" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M488" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A489" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M489" t="s">
         <v>1527</v>
       </c>
-      <c r="M487" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A490" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M490" t="s">
         <v>1494</v>
       </c>
-      <c r="B488" t="s">
-        <v>1528</v>
-      </c>
-      <c r="M488" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1529</v>
-      </c>
-      <c r="M489" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M490" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="B491" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="M491" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M495" t="s">
         <v>1253</v>
       </c>
-      <c r="B495" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M495" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>382</v>
       </c>
@@ -9062,7 +9082,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>384</v>
       </c>
@@ -9073,7 +9093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>386</v>
       </c>
@@ -9084,7 +9104,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>387</v>
       </c>
@@ -9095,7 +9115,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>388</v>
       </c>
@@ -9106,7 +9126,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>390</v>
       </c>
@@ -9117,62 +9137,62 @@
         <v>389</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M511" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A512" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A513" t="s">
         <v>1360</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B513" t="s">
         <v>1363</v>
       </c>
-      <c r="M511" t="s">
+      <c r="M513" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1364</v>
-      </c>
-      <c r="M512" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1365</v>
-      </c>
-      <c r="M513" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>100</v>
       </c>
       <c r="B515" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M515" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>101</v>
       </c>
       <c r="B516" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M516" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>102</v>
       </c>
@@ -9183,7 +9203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>103</v>
       </c>
@@ -9194,150 +9214,150 @@
         <v>212</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
+        <v>977</v>
+      </c>
+      <c r="B519" t="s">
         <v>979</v>
       </c>
-      <c r="B519" t="s">
-        <v>981</v>
-      </c>
       <c r="M519" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M520" t="s">
         <v>1406</v>
       </c>
-      <c r="B520" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M520" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
+        <v>872</v>
+      </c>
+      <c r="B522" t="s">
+        <v>875</v>
+      </c>
+      <c r="M522" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A523" t="s">
+        <v>873</v>
+      </c>
+      <c r="B523" t="s">
+        <v>876</v>
+      </c>
+      <c r="M523" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A524" t="s">
         <v>874</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B524" t="s">
         <v>877</v>
       </c>
-      <c r="M522" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>875</v>
-      </c>
-      <c r="B523" t="s">
-        <v>878</v>
-      </c>
-      <c r="M523" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>876</v>
-      </c>
-      <c r="B524" t="s">
-        <v>879</v>
-      </c>
       <c r="M524" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>635</v>
       </c>
       <c r="B525" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M525" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>637</v>
       </c>
       <c r="B526" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M526" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>636</v>
       </c>
       <c r="B527" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="M527" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A529" t="s">
+        <v>885</v>
+      </c>
+      <c r="B529" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="M529" t="s">
         <v>887</v>
       </c>
-      <c r="B529" t="s">
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A530" t="s">
         <v>888</v>
       </c>
-      <c r="M529" t="s">
+      <c r="B530" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+      <c r="M530" t="s">
         <v>890</v>
       </c>
-      <c r="B530" t="s">
-        <v>891</v>
-      </c>
-      <c r="M530" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M532" t="s">
         <v>1106</v>
       </c>
-      <c r="B532" t="s">
-        <v>1107</v>
-      </c>
-      <c r="M532" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B533" t="s">
         <v>1094</v>
       </c>
-      <c r="B533" t="s">
+      <c r="M533" t="s">
         <v>1096</v>
       </c>
-      <c r="M533" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B534" t="s">
         <v>1095</v>
       </c>
-      <c r="B534" t="s">
+      <c r="M534" t="s">
         <v>1097</v>
       </c>
-      <c r="M534" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>638</v>
       </c>
@@ -9348,18 +9368,18 @@
         <v>639</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B536" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="M536" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>213</v>
       </c>
@@ -9370,7 +9390,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>214</v>
       </c>
@@ -9381,7 +9401,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>217</v>
       </c>
@@ -9389,10 +9409,10 @@
         <v>525</v>
       </c>
       <c r="M543" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>218</v>
       </c>
@@ -9400,10 +9420,10 @@
         <v>526</v>
       </c>
       <c r="M544" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>219</v>
       </c>
@@ -9411,10 +9431,10 @@
         <v>527</v>
       </c>
       <c r="M545" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>220</v>
       </c>
@@ -9425,18 +9445,18 @@
         <v>682</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M549" t="s">
         <v>1264</v>
       </c>
-      <c r="B549" t="s">
-        <v>1265</v>
-      </c>
-      <c r="M549" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>402</v>
       </c>
@@ -9444,10 +9464,10 @@
         <v>595</v>
       </c>
       <c r="M551" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>403</v>
       </c>
@@ -9455,10 +9475,10 @@
         <v>596</v>
       </c>
       <c r="M552" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>404</v>
       </c>
@@ -9466,10 +9486,10 @@
         <v>597</v>
       </c>
       <c r="M553" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>405</v>
       </c>
@@ -9477,26 +9497,26 @@
         <v>598</v>
       </c>
       <c r="M554" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="B555" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="M555" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>406</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -9509,15 +9529,15 @@
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
       <c r="M556" s="1" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -9530,15 +9550,15 @@
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
       <c r="M557" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -9551,10 +9571,10 @@
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>413</v>
       </c>
@@ -9565,7 +9585,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>744</v>
       </c>
@@ -9576,7 +9596,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>745</v>
       </c>
@@ -9587,7 +9607,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>418</v>
       </c>
@@ -9598,7 +9618,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>414</v>
       </c>
@@ -9609,7 +9629,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>415</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>416</v>
       </c>
@@ -9631,7 +9651,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>417</v>
       </c>
@@ -9642,183 +9662,183 @@
         <v>412</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M568" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A569" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M569" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A571" t="s">
+        <v>826</v>
+      </c>
+      <c r="B571" t="s">
+        <v>833</v>
+      </c>
+      <c r="M571" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A572" t="s">
+        <v>827</v>
+      </c>
+      <c r="B572" t="s">
+        <v>834</v>
+      </c>
+      <c r="M572" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A573" t="s">
+        <v>828</v>
+      </c>
+      <c r="B573" t="s">
+        <v>835</v>
+      </c>
+      <c r="M573" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A574" t="s">
+        <v>829</v>
+      </c>
+      <c r="B574" t="s">
+        <v>836</v>
+      </c>
+      <c r="M574" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A575" t="s">
+        <v>830</v>
+      </c>
+      <c r="B575" t="s">
+        <v>837</v>
+      </c>
+      <c r="M575" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A576" t="s">
+        <v>831</v>
+      </c>
+      <c r="B576" t="s">
+        <v>838</v>
+      </c>
+      <c r="M576" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A577" t="s">
+        <v>832</v>
+      </c>
+      <c r="B577" t="s">
+        <v>839</v>
+      </c>
+      <c r="M577" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A578" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B578" t="s">
         <v>1070</v>
       </c>
-      <c r="B568" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M568" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1564</v>
-      </c>
-      <c r="M569" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>828</v>
-      </c>
-      <c r="B571" t="s">
-        <v>835</v>
-      </c>
-      <c r="M571" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>829</v>
-      </c>
-      <c r="B572" t="s">
-        <v>836</v>
-      </c>
-      <c r="M572" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>830</v>
-      </c>
-      <c r="B573" t="s">
-        <v>837</v>
-      </c>
-      <c r="M573" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>831</v>
-      </c>
-      <c r="B574" t="s">
-        <v>838</v>
-      </c>
-      <c r="M574" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>832</v>
-      </c>
-      <c r="B575" t="s">
-        <v>839</v>
-      </c>
-      <c r="M575" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>833</v>
-      </c>
-      <c r="B576" t="s">
-        <v>840</v>
-      </c>
-      <c r="M576" t="s">
+      <c r="M578" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A579" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1562</v>
+      </c>
+      <c r="M579" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A581" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>834</v>
-      </c>
-      <c r="B577" t="s">
-        <v>841</v>
-      </c>
-      <c r="M577" t="s">
+      <c r="B581" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A582" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1072</v>
-      </c>
-      <c r="M578" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1568</v>
-      </c>
-      <c r="M579" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>849</v>
-      </c>
-      <c r="B581" t="s">
+      <c r="B582" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A583" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M583" t="s">
         <v>1540</v>
       </c>
-      <c r="M581" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>850</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1544</v>
-      </c>
-      <c r="M582" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A584" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M584" t="s">
         <v>1503</v>
       </c>
-      <c r="B583" t="s">
-        <v>1545</v>
-      </c>
-      <c r="M583" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1506</v>
-      </c>
-      <c r="M584" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="B585" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="M585" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>419</v>
       </c>
@@ -9829,7 +9849,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>420</v>
       </c>
@@ -9840,7 +9860,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>421</v>
       </c>
@@ -9851,34 +9871,34 @@
         <v>442</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
+        <v>852</v>
+      </c>
+      <c r="B591" t="s">
+        <v>853</v>
+      </c>
+      <c r="M591" t="s">
         <v>854</v>
       </c>
-      <c r="B591" t="s">
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A592" t="s">
         <v>855</v>
       </c>
-      <c r="M591" t="s">
+      <c r="B592" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="M592" t="s">
         <v>857</v>
       </c>
-      <c r="B592" t="s">
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A593" t="s">
         <v>858</v>
       </c>
-      <c r="M592" t="s">
+      <c r="B593" s="2" t="s">
         <v>859</v>
-      </c>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>860</v>
-      </c>
-      <c r="B593" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -9891,15 +9911,15 @@
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
       <c r="M593" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -9912,15 +9932,15 @@
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
       <c r="M594" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -9933,15 +9953,15 @@
       <c r="K595" s="3"/>
       <c r="L595" s="3"/>
       <c r="M595" s="2" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -9954,10 +9974,10 @@
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
       <c r="M596" s="2" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>422</v>
       </c>
@@ -9968,18 +9988,18 @@
         <v>644</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="M599" s="2" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>429</v>
       </c>
@@ -9990,7 +10010,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>430</v>
       </c>
@@ -10001,7 +10021,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>431</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>432</v>
       </c>
@@ -10023,18 +10043,18 @@
         <v>428</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="M605" s="4" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>603</v>
       </c>
@@ -10045,7 +10065,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>604</v>
       </c>
@@ -10056,7 +10076,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>605</v>
       </c>
@@ -10067,18 +10087,18 @@
         <v>439</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="B611" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="M611" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>630</v>
       </c>
@@ -10089,7 +10109,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>631</v>
       </c>
@@ -10100,7 +10120,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>646</v>
       </c>
@@ -10111,7 +10131,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>751</v>
       </c>
@@ -10122,18 +10142,18 @@
         <v>754</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
+        <v>869</v>
+      </c>
+      <c r="B619" t="s">
+        <v>870</v>
+      </c>
+      <c r="M619" t="s">
         <v>871</v>
       </c>
-      <c r="B619" t="s">
-        <v>872</v>
-      </c>
-      <c r="M619" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>755</v>
       </c>
@@ -10144,7 +10164,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>758</v>
       </c>
@@ -10155,7 +10175,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>760</v>
       </c>
@@ -10166,107 +10186,109 @@
         <v>756</v>
       </c>
     </row>
-    <row r="624" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>764</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1445</v>
+        <v>1592</v>
       </c>
       <c r="M624" s="4" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="625" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" ht="150" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>765</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1447</v>
+        <v>1597</v>
       </c>
       <c r="M625" s="4" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>766</v>
       </c>
       <c r="B626" t="s">
-        <v>768</v>
+        <v>1594</v>
       </c>
       <c r="M626" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="628" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B628" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M628" s="4" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A629" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M629" s="4" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A630" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M630" s="4" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A631" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B631" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="M628" s="4" t="s">
+      <c r="M631" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A632" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B632" s="4" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="629" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B629" s="4" t="s">
+      <c r="M632" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="M629" s="4" t="s">
+    </row>
+    <row r="633" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A633" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B633" s="4" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="630" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B630" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="M630" s="4" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="631" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B631" s="4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="M631" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="632" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B632" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M632" s="4" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="633" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B633" s="4" t="s">
-        <v>1458</v>
-      </c>
       <c r="M633" s="4" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10278,14 +10300,14 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="58.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="58.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
         <v>104</v>
       </c>
@@ -10335,491 +10357,492 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>895</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>899</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="150" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>905</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>906</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>908</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>909</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>910</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>911</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="225" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>912</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>913</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>914</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>915</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>916</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>918</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>919</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>920</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>921</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>922</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>923</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>924</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="150" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>925</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="150" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>926</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>927</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>928</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>929</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>897</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>930</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>899</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>900</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>901</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>902</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>903</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>905</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>907</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>908</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>909</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>910</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>911</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>912</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>913</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>914</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>915</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>916</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>917</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>918</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>919</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>920</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>921</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>922</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>923</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>924</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>925</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M32" s="4" t="s">
+    <row r="41" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>931</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>926</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>927</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>928</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>929</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="42" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>930</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>931</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>932</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>933</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1021</v>
-      </c>
       <c r="M42" s="4" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>1078</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>1252</v>
-      </c>
       <c r="M45" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10832,14 +10855,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="13" max="13" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -10889,381 +10912,382 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="75" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>1178</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>1268</v>
       </c>
-      <c r="M2" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="M4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>1179</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" t="s">
         <v>1269</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="M5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>1180</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>1270</v>
       </c>
-      <c r="M4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M6" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>1181</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M15" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="M7" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M16" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1275</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1277</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="M12" s="4" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M17" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1280</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>1192</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>1282</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>980</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M27" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M17" t="s">
+    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M29" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1284</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1285</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1288</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>982</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1289</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1292</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>1204</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" t="s">
         <v>1293</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M30" s="4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M34" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1294</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1295</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="35" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="M32" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1298</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1300</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1299</v>
-      </c>
       <c r="M35" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11276,12 +11300,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -11331,223 +11355,224 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>796</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>797</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>798</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>799</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>800</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>801</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>802</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>803</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>804</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>805</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>806</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>807</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>808</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>809</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>810</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>811</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>812</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>813</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>814</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>815</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>816</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>817</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>818</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>819</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>820</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>821</v>
-      </c>
-      <c r="B27" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>822</v>
-      </c>
-      <c r="B28" t="s">
-        <v>795</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11560,13 +11585,13 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -11616,255 +11641,256 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>1323</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>1324</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>1325</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>1326</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>1327</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>1328</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M9" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>1329</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M10" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>1330</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M11" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>1331</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M12" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>1332</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M13" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>1333</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M15" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1334</v>
-      </c>
-      <c r="M13" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M18" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1335</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M15" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M19" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1337</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>1339</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M20" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M21" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1340</v>
-      </c>
-      <c r="M19" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>1341</v>
+      </c>
+      <c r="M22" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1341</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>1342</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1343</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1344</v>
       </c>
       <c r="M23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>1345</v>
       </c>
-      <c r="M24" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="M26" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>1346</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>1347</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M28" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>1348</v>
       </c>
-      <c r="M27" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1349</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1350</v>
-      </c>
       <c r="M29" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="M30" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="M31" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="M32" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11877,13 +11903,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -11933,194 +11959,195 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>1125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>1109</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>1126</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>1110</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>1127</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>1111</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>1128</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>1112</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>1129</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>1113</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>1130</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>1114</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M9" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>1131</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>1115</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M10" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>1132</v>
       </c>
-      <c r="B9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>1133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>1117</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M13" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B14" t="s">
         <v>1118</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M14" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>1134</v>
       </c>
-      <c r="B12" t="s">
-        <v>1159</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>1135</v>
       </c>
-      <c r="B13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>1120</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M16" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M17" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M15" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M18" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1156</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12133,14 +12160,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -12190,73 +12217,74 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B3" t="s">
         <v>1160</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B5" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M7" t="s">
         <v>1174</v>
       </c>
-      <c r="M6" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1176</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>